--- a/results/autoware_comodify_dup_results.xlsx
+++ b/results/autoware_comodify_dup_results.xlsx
@@ -507,11 +507,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'perception,sensing,socket': 4, 'perception,planning': 2, 'sensing,socket': 2, 'planning,sensing': 1, 'data,perception': 1, 'perception,sensing': 5}</t>
+          <t>{'perception,sensing,socket': 4, 'perception,planning': 2, 'planning,sensing': 1, 'sensing,socket': 2, 'data,perception': 1, 'perception,sensing': 5}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="I2" t="n">
         <v>2818</v>
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'perception,planning,sensing': 1, 'perception,planning,sensing,socket': 2, 'perception,sensing,socket': 1, 'perception,planning': 10, 'data,perception,planning': 1, 'planning,sensing': 1, 'perception,sensing': 5, 'sensing,socket': 2}</t>
+          <t>{'planning,sensing': 1, 'perception,planning': 10, 'perception,planning,sensing': 1, 'perception,planning,sensing,socket': 2, 'perception,sensing,socket': 1, 'data,perception,planning': 1, 'perception,sensing': 5, 'sensing,socket': 2}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="I3" t="n">
         <v>2306</v>
@@ -573,11 +573,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'perception,planning,socket': 4, 'perception,planning,sensing,socket': 2, 'sensing,socket': 1, 'perception,sensing': 5, 'perception,planning': 22, 'data,planning': 3, 'planning,sensing': 6, 'perception,system': 1, 'perception,planning,sensing': 2}</t>
+          <t>{'perception,planning': 22, 'perception,system': 1, 'planning,sensing': 6, 'perception,planning,socket': 4, 'perception,planning,sensing,socket': 2, 'sensing,socket': 1, 'perception,sensing': 5, 'data,planning': 3, 'perception,planning,sensing': 2}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>46</v>
+        <v>389</v>
       </c>
       <c r="I4" t="n">
         <v>5296</v>
@@ -606,11 +606,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'planning,sensing': 6, 'perception,planning,sensing': 4, 'perception,planning,sensing,socket': 5, 'perception,sensing': 4, 'data,perception,planning,sensing': 1, 'perception,planning': 18, 'perception,planning,socket': 1, 'sensing,socket': 3}</t>
+          <t>{'perception,sensing': 4, 'planning,sensing': 6, 'perception,planning,sensing': 4, 'perception,planning,sensing,socket': 5, 'perception,planning': 18, 'data,perception,planning,sensing': 1, 'perception,planning,socket': 1, 'sensing,socket': 3}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="I5" t="n">
         <v>4178</v>
@@ -639,11 +639,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'perception,sensing': 5, 'data,perception,planning,sensing': 1, 'perception,planning,sensing': 4, 'perception,planning,sensing,socket': 5, 'perception,planning': 26, 'perception,planning,socket': 1, 'sensing,socket': 3, 'planning,sensing': 5, 'data,socket': 1, 'data,planning': 1}</t>
+          <t>{'perception,planning,sensing,socket': 5, 'perception,planning': 26, 'perception,planning,sensing': 4, 'data,perception,planning,sensing': 1, 'perception,sensing': 5, 'planning,sensing': 5, 'perception,planning,socket': 1, 'sensing,socket': 3, 'data,planning': 1, 'data,socket': 1}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>52</v>
+        <v>465</v>
       </c>
       <c r="I6" t="n">
         <v>4834</v>
@@ -672,11 +672,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'perception,planning,sensing,socket': 3, 'perception,planning': 29, 'perception,planning,sensing': 5, 'data,perception,planning,sensing': 1, 'perception,planning,socket': 1, 'perception,planning,sensing,socket,util': 2, 'perception,util': 2, 'data,planning': 2, 'data,perception,planning': 1, 'sensing,socket': 4, 'perception,sensing': 3, 'planning,sensing': 5, 'data,perception': 2, 'data,socket': 1, 'planning,system': 1, 'perception,system': 1}</t>
+          <t>{'perception,planning': 29, 'perception,planning,sensing,socket,util': 2, 'planning,sensing': 5, 'perception,planning,sensing,socket': 3, 'perception,planning,sensing': 5, 'perception,planning,socket': 1, 'data,perception,planning,sensing': 1, 'perception,sensing': 3, 'perception,util': 2, 'data,planning': 2, 'data,perception,planning': 1, 'data,perception': 2, 'sensing,socket': 4, 'data,socket': 1, 'planning,system': 1, 'perception,system': 1}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>63</v>
+        <v>581</v>
       </c>
       <c r="I7" t="n">
         <v>5848</v>
@@ -705,11 +705,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'perception,sensing,socket,util': 1, 'perception,planning,sensing,socket': 1, 'perception,planning,sensing': 4, 'perception,planning': 9, 'data,perception,planning,sensing': 1, 'perception,sensing': 4, 'perception,sensing,util': 1, 'data,perception,planning,socket': 1, 'data,socket': 1, 'actuation,perception,planning': 7, 'actuation,perception': 1, 'planning,sensing': 11, 'planning,sensing,socket': 1, 'data,planning': 1, 'sensing,socket': 2, 'perception,util': 1, 'planning,system': 1, 'actuation,planning': 2, 'perception,planning,system': 1, 'data,perception': 2}</t>
+          <t>{'perception,planning': 9, 'perception,planning,sensing': 4, 'perception,planning,sensing,socket': 1, 'planning,sensing,socket': 1, 'planning,sensing': 11, 'perception,sensing,util': 1, 'perception,sensing,socket,util': 1, 'data,perception,planning,sensing': 1, 'data,planning': 1, 'perception,sensing': 4, 'data,socket': 1, 'data,perception,planning,socket': 1, 'actuation,perception,planning': 7, 'actuation,perception': 1, 'sensing,socket': 2, 'actuation,planning': 2, 'planning,system': 1, 'perception,util': 1, 'perception,planning,system': 1, 'data,perception': 2}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>53</v>
+        <v>513</v>
       </c>
       <c r="I8" t="n">
         <v>3688</v>
@@ -738,11 +738,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'perception,planning,sensing': 14, 'data,perception,planning,sensing': 1, 'perception,planning,sensing,socket': 2, 'perception,planning': 44, 'planning,sensing': 4, 'perception,sensing': 16, 'actuation,perception,planning': 7, 'perception,planning,util': 1, 'perception,planning,socket,util': 1, 'data,perception,planning': 2, 'perception,util': 1, 'planning,system': 2, 'actuation,planning': 2, 'actuation,perception': 2, 'data,planning': 2, 'planning,sensing,socket': 1, 'perception,planning,system': 1, 'perception,system': 1, 'data,perception': 2}</t>
+          <t>{'perception,planning': 44, 'actuation,perception,planning': 7, 'perception,planning,sensing': 14, 'perception,sensing': 16, 'actuation,planning': 2, 'data,perception,planning,sensing': 1, 'perception,planning,sensing,socket': 2, 'perception,planning,util': 1, 'perception,planning,socket,util': 1, 'data,perception,planning': 2, 'planning,system': 2, 'perception,util': 1, 'planning,sensing': 4, 'actuation,perception': 2, 'data,planning': 2, 'perception,planning,system': 1, 'perception,system': 1, 'planning,sensing,socket': 1, 'data,perception': 2}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>106</v>
+        <v>1130</v>
       </c>
       <c r="I9" t="n">
         <v>4546</v>
